--- a/biology/Zoologie/Choia/Choia.xlsx
+++ b/biology/Zoologie/Choia/Choia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Choia est un genre éteint d'éponges de la famille Choiidae (ordre des Monaxonida, classe des Demospongiae). Ce genre a été découvert dans les schistes de Burgess datés du Cambrien moyen, il y a environ 505 Ma (millions d'années), et dans la formation des argiles de Fezouata dans le Sud-Est du Maroc, datée de l'Ordovicien inférieur , il y a environ 480 Ma[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Choia est un genre éteint d'éponges de la famille Choiidae (ordre des Monaxonida, classe des Demospongiae). Ce genre a été découvert dans les schistes de Burgess datés du Cambrien moyen, il y a environ 505 Ma (millions d'années), et dans la formation des argiles de Fezouata dans le Sud-Est du Maroc, datée de l'Ordovicien inférieur , il y a environ 480 Ma.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Choia a été créé en 1920 par le géologue et paléontologue américain Charles Doolittle Walcott (1850-1927)[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Choia a été créé en 1920 par le géologue et paléontologue américain Charles Doolittle Walcott (1850-1927),.
 </t>
         </is>
       </c>
@@ -542,15 +556,17 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Paleobiology Database                   (4 juillet 2022)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database                   (4 juillet 2022) :
 † Choia carteri Walcott, 1920 - espèce type
 † Choia hindei (Dawson, 1896)
 † Choia ridleyi Walcott, 1920
 † Choia striata Xiao et al., 2005
 † Choia utahensis Walcott, 1920
-Auxquelles certains auteurs[4] ajoutent :
+Auxquelles certains auteurs ajoutent :
 † Choia xiaolantianensis Hou et al., 1999</t>
         </is>
       </c>
@@ -579,7 +595,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Charles D. Walcott, « Middle Cambrian Spongiae », Smithsonian Miscellaneous Collections, vol. 67, no 6,‎ 1920, p. 261–364 (ISSN 0096-8749, OCLC 1376204, lire en ligne)</t>
         </is>
